--- a/Code/Results/Cases/Case_2_72/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_72/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.559189646204914</v>
+        <v>1.720326527486293</v>
       </c>
       <c r="C2">
-        <v>1.312433989874478</v>
+        <v>0.4125059731021565</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1020959887241872</v>
+        <v>0.05134008465251938</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.0007650291944778601</v>
+        <v>0.002460635343412849</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.370316031772219</v>
+        <v>0.5172146108966018</v>
       </c>
       <c r="N2">
-        <v>1.520029762828756</v>
+        <v>1.808380866996032</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.909992177766298</v>
+        <v>1.560570256317419</v>
       </c>
       <c r="C3">
-        <v>1.121431723408421</v>
+        <v>0.364136531653628</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.08796131123586193</v>
+        <v>0.04819871944929943</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.0007770990651270254</v>
+        <v>0.002467433184192771</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.174484247397899</v>
+        <v>0.4695452906511406</v>
       </c>
       <c r="N3">
-        <v>1.48506686793489</v>
+        <v>1.798734719878581</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.522248247812001</v>
+        <v>1.46350614791703</v>
       </c>
       <c r="C4">
-        <v>1.007420725967251</v>
+        <v>0.3346175515906111</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.07955908106568543</v>
+        <v>0.04630699582197551</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.0007846299668080981</v>
+        <v>0.002471816524338695</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.05763750456088</v>
+        <v>0.4405957011175516</v>
       </c>
       <c r="N4">
-        <v>1.466807362908582</v>
+        <v>1.793352692763079</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.366543183593933</v>
+        <v>1.424203608197104</v>
       </c>
       <c r="C5">
-        <v>0.9616462122141627</v>
+        <v>0.3226314632369736</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.07619424130646024</v>
+        <v>0.04554525756180539</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0007877335028576505</v>
+        <v>0.002473655651067034</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.010741126167986</v>
+        <v>0.4288767996643799</v>
       </c>
       <c r="N5">
-        <v>1.46008474519185</v>
+        <v>1.791293632154677</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.340816064780199</v>
+        <v>1.417692480519804</v>
       </c>
       <c r="C6">
-        <v>0.9540831795908673</v>
+        <v>0.3206437257967139</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.07563880390195976</v>
+        <v>0.04541931945539091</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0007882510551343315</v>
+        <v>0.002473964236792288</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.002993870968538</v>
+        <v>0.4269355538883346</v>
       </c>
       <c r="N6">
-        <v>1.459009459975988</v>
+        <v>1.790959776780284</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.520139555832429</v>
+        <v>1.462975088607891</v>
       </c>
       <c r="C7">
-        <v>1.006800784165932</v>
+        <v>0.3344557311616256</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.07951347503474437</v>
+        <v>0.04629668591170955</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938368969</v>
       </c>
       <c r="G7">
-        <v>0.0007846716763910688</v>
+        <v>0.002471841113047194</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.057002295155655</v>
+        <v>0.4404373416213971</v>
       </c>
       <c r="N7">
-        <v>1.466713900053605</v>
+        <v>1.793324382730404</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.332815746767153</v>
+        <v>1.665025534308086</v>
       </c>
       <c r="C8">
-        <v>1.245811749352185</v>
+        <v>0.3957895082122604</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.097158279004109</v>
+        <v>0.05024913946652632</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813905</v>
       </c>
       <c r="G8">
-        <v>0.0007691688565871836</v>
+        <v>0.002462935899910131</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.302002503408289</v>
+        <v>0.5007106354897672</v>
       </c>
       <c r="N8">
-        <v>1.507252017243601</v>
+        <v>1.804941541416397</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.035380689801457</v>
+        <v>2.06970441586418</v>
       </c>
       <c r="C9">
-        <v>1.747602766364935</v>
+        <v>0.517596977161304</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1345044875438859</v>
+        <v>0.05830241937369252</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>0.5661985755042025</v>
       </c>
       <c r="G9">
-        <v>0.0007394839250925753</v>
+        <v>0.002447124736167261</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.816485714283928</v>
+        <v>0.6215424825642799</v>
       </c>
       <c r="N9">
-        <v>1.616869340830874</v>
+        <v>1.832097583221767</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.390936116610021</v>
+        <v>2.372644246010225</v>
       </c>
       <c r="C10">
-        <v>2.148621269662499</v>
+        <v>0.6081763660110369</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1645460392891067</v>
+        <v>0.06441580084739229</v>
       </c>
       <c r="F10">
-        <v>2.275587181990957</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0007177146717198823</v>
+        <v>0.002436501448746409</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2.227224836742224</v>
+        <v>0.7120744492649607</v>
       </c>
       <c r="N10">
-        <v>1.723640541081551</v>
+        <v>1.854836238832547</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.04141048790683</v>
+        <v>2.51178494891343</v>
       </c>
       <c r="C11">
-        <v>2.341624781490736</v>
+        <v>0.6496537634676542</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1790471674939127</v>
+        <v>0.06724236942517337</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0007077059163951777</v>
+        <v>0.002431881309022619</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2.424665445998144</v>
+        <v>0.7536748774556941</v>
       </c>
       <c r="N11">
-        <v>1.780190016999796</v>
+        <v>1.865812329107342</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.293782546570128</v>
+        <v>2.564673536994576</v>
       </c>
       <c r="C12">
-        <v>2.416614921675603</v>
+        <v>0.6654020271670333</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.184687434937544</v>
+        <v>0.06831948445970681</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0007038884042508524</v>
+        <v>0.002430162100254495</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2.501328569849406</v>
+        <v>0.7694904564404794</v>
       </c>
       <c r="N12">
-        <v>1.802997239223288</v>
+        <v>1.87006174226326</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.239138604846346</v>
+        <v>2.553274060268848</v>
       </c>
       <c r="C13">
-        <v>2.400372676120128</v>
+        <v>0.6620084628902987</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1834655403623273</v>
+        <v>0.06808720475554253</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0007047120184309197</v>
+        <v>0.002430531016684722</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2.484726531223643</v>
+        <v>0.7660814738765538</v>
       </c>
       <c r="N13">
-        <v>1.798018785116795</v>
+        <v>1.869142384803723</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.062044200755679</v>
+        <v>2.516132092546059</v>
       </c>
       <c r="C14">
-        <v>2.347753584878888</v>
+        <v>0.6509485328502365</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1795080192157954</v>
+        <v>0.06733084776887921</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0007073924769677237</v>
+        <v>0.00243173926197319</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2.430932099611326</v>
+        <v>0.7549747699102056</v>
       </c>
       <c r="N14">
-        <v>1.782036842619618</v>
+        <v>1.866160054752328</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.95439684927328</v>
+        <v>2.493407709323037</v>
       </c>
       <c r="C15">
-        <v>2.315783742342205</v>
+        <v>0.6441795087798141</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1771043025062369</v>
+        <v>0.06686844306963025</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0007090303542969981</v>
+        <v>0.002432483291544987</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2.398241039378803</v>
+        <v>0.74817979262194</v>
       </c>
       <c r="N15">
-        <v>1.772437157548836</v>
+        <v>1.864345466545871</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.349202162206097</v>
+        <v>2.363578511735</v>
       </c>
       <c r="C16">
-        <v>2.13625161194301</v>
+        <v>0.6054714144522677</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1636174840260765</v>
+        <v>0.06423201201464224</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0007183656579003511</v>
+        <v>0.002436807642710526</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>2.214564784285898</v>
+        <v>0.7093643613625886</v>
       </c>
       <c r="N16">
-        <v>1.720125200071237</v>
+        <v>1.854131825153161</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.987361640716756</v>
+        <v>2.28427890926605</v>
       </c>
       <c r="C17">
-        <v>2.029069280362705</v>
+        <v>0.581796780794491</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1555762268711121</v>
+        <v>0.06262645934910438</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337215605</v>
       </c>
       <c r="G17">
-        <v>0.0007240576192988472</v>
+        <v>0.002439514754064557</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>2.104838414997346</v>
+        <v>0.6856608681564751</v>
       </c>
       <c r="N17">
-        <v>1.690234990622031</v>
+        <v>1.848029483918197</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.782339563774826</v>
+        <v>2.238792776550667</v>
       </c>
       <c r="C18">
-        <v>1.968389092436894</v>
+        <v>0.5682052421475419</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1510276437380647</v>
+        <v>0.0617072638762366</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0007273223957884954</v>
+        <v>0.002441091822334767</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>2.042697126493863</v>
+        <v>0.6720663450315669</v>
       </c>
       <c r="N18">
-        <v>1.673776363218309</v>
+        <v>1.844578953066332</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.713422941566193</v>
+        <v>2.223413179643501</v>
       </c>
       <c r="C19">
-        <v>1.947999859128231</v>
+        <v>0.5636076822340783</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.149499939247665</v>
+        <v>0.06139676836360408</v>
       </c>
       <c r="F19">
-        <v>2.087706772602971</v>
+        <v>0.6191636801734006</v>
       </c>
       <c r="G19">
-        <v>0.000728426559951531</v>
+        <v>0.002441629233571319</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2.021813792007393</v>
+        <v>0.6674701150336375</v>
       </c>
       <c r="N19">
-        <v>1.668323116425199</v>
+        <v>1.843420796690538</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.025551695456784</v>
+        <v>2.292707506711054</v>
       </c>
       <c r="C20">
-        <v>2.040376319840675</v>
+        <v>0.5843143304404066</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1564241226134442</v>
+        <v>0.06279692916800528</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.6429339538360921</v>
       </c>
       <c r="G20">
-        <v>0.0007234527205696831</v>
+        <v>0.00243922450822489</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>2.116416104731272</v>
+        <v>0.6881800813649761</v>
       </c>
       <c r="N20">
-        <v>1.693339343735005</v>
+        <v>1.848672928415084</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.113886018379276</v>
+        <v>2.527036126684436</v>
       </c>
       <c r="C21">
-        <v>2.363153903951627</v>
+        <v>0.6541959511528717</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1806661304531261</v>
+        <v>0.06755282318246714</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723492197</v>
       </c>
       <c r="G21">
-        <v>0.0007066060169149859</v>
+        <v>0.002431383549404309</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2.446677935437094</v>
+        <v>0.7582353648812443</v>
       </c>
       <c r="N21">
-        <v>1.786691065728434</v>
+        <v>1.86703349630659</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.861220749603262</v>
+        <v>2.681347096063803</v>
       </c>
       <c r="C22">
-        <v>2.585455748786558</v>
+        <v>0.7001117373686725</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1973970225304882</v>
+        <v>0.07070054498927192</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0006954280037061444</v>
+        <v>0.002426435762958231</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.673821474793229</v>
+        <v>0.804385426887535</v>
       </c>
       <c r="N22">
-        <v>1.855982387928748</v>
+        <v>1.879576298125272</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.458585520036991</v>
+        <v>2.598879426504027</v>
       </c>
       <c r="C23">
-        <v>2.465618489840381</v>
+        <v>0.6755824399731409</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1883747760632275</v>
+        <v>0.06901686672943441</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>0.7472568307916134</v>
       </c>
       <c r="G23">
-        <v>0.0007014140970670766</v>
+        <v>0.002429060388560833</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2.551408847953255</v>
+        <v>0.7797200632110446</v>
       </c>
       <c r="N23">
-        <v>1.818145146768103</v>
+        <v>1.872831571003502</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.008276698029078</v>
+        <v>2.288896613608642</v>
       </c>
       <c r="C24">
-        <v>2.035261505894084</v>
+        <v>0.5831760862460555</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1560405591650067</v>
+        <v>0.06271984776090633</v>
       </c>
       <c r="F24">
-        <v>2.170038921573038</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0007237262181108268</v>
+        <v>0.002439355663834891</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2.111178924473734</v>
+        <v>0.6870410426847826</v>
       </c>
       <c r="N24">
-        <v>1.691933623202772</v>
+        <v>1.848381847324987</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.559600289433035</v>
+        <v>1.959274939544571</v>
       </c>
       <c r="C25">
-        <v>1.607192037251309</v>
+        <v>0.4844651254614405</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1240217609592449</v>
+        <v>0.05609015891679547</v>
       </c>
       <c r="F25">
-        <v>1.757113814925404</v>
+        <v>0.5279251897347308</v>
       </c>
       <c r="G25">
-        <v>0.0007474744530590827</v>
+        <v>0.002451226659085448</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.672554346324659</v>
+        <v>0.5885567523550463</v>
       </c>
       <c r="N25">
-        <v>1.583264618680289</v>
+        <v>1.82427049017717</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_72/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_72/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.720326527486293</v>
+        <v>4.55918964620497</v>
       </c>
       <c r="C2">
-        <v>0.4125059731021565</v>
+        <v>1.312433989874819</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05134008465251938</v>
+        <v>0.102095988724205</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002460635343412849</v>
+        <v>0.0007650291944174919</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5172146108966018</v>
+        <v>1.370316031772205</v>
       </c>
       <c r="N2">
-        <v>1.808380866996032</v>
+        <v>1.520029762828756</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.560570256317419</v>
+        <v>3.909992177766298</v>
       </c>
       <c r="C3">
-        <v>0.364136531653628</v>
+        <v>1.121431723408705</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04819871944929943</v>
+        <v>0.08796131123588324</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002467433184192771</v>
+        <v>0.0007770990650601828</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4695452906511406</v>
+        <v>1.174484247397899</v>
       </c>
       <c r="N3">
-        <v>1.798734719878581</v>
+        <v>1.485066867934805</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.46350614791703</v>
+        <v>3.522248247812115</v>
       </c>
       <c r="C4">
-        <v>0.3346175515906111</v>
+        <v>1.007420725967307</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04630699582197551</v>
+        <v>0.07955908106565346</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002471816524338695</v>
+        <v>0.0007846299667462351</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4405957011175516</v>
+        <v>1.057637504560887</v>
       </c>
       <c r="N4">
-        <v>1.793352692763079</v>
+        <v>1.466807362908568</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.424203608197104</v>
+        <v>3.366543183594104</v>
       </c>
       <c r="C5">
-        <v>0.3226314632369736</v>
+        <v>0.9616462122141627</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.04554525756180539</v>
+        <v>0.07619424130646735</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002473655651067034</v>
+        <v>0.000787733502860074</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4288767996643799</v>
+        <v>1.010741126167986</v>
       </c>
       <c r="N5">
-        <v>1.791293632154677</v>
+        <v>1.46008474519185</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.417692480519804</v>
+        <v>3.340816064780313</v>
       </c>
       <c r="C6">
-        <v>0.3206437257967139</v>
+        <v>0.9540831795908673</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04541931945539091</v>
+        <v>0.07563880390196687</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002473964236792288</v>
+        <v>0.0007882510550755652</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4269355538883346</v>
+        <v>1.002993870968524</v>
       </c>
       <c r="N6">
-        <v>1.790959776780284</v>
+        <v>1.459009459975974</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.462975088607891</v>
+        <v>3.520139555832429</v>
       </c>
       <c r="C7">
-        <v>0.3344557311616256</v>
+        <v>1.006800784166217</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.04629668591170955</v>
+        <v>0.07951347503469108</v>
       </c>
       <c r="F7">
-        <v>0.3529483938368969</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002471841113047194</v>
+        <v>0.0007846716763927478</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4404373416213971</v>
+        <v>1.057002295155641</v>
       </c>
       <c r="N7">
-        <v>1.793324382730404</v>
+        <v>1.466713900053549</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.665025534308086</v>
+        <v>4.33281574676721</v>
       </c>
       <c r="C8">
-        <v>0.3957895082122604</v>
+        <v>1.245811749352242</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05024913946652632</v>
+        <v>0.09715827900411256</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813905</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002462935899910131</v>
+        <v>0.0007691688566326925</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5007106354897672</v>
+        <v>1.302002503408318</v>
       </c>
       <c r="N8">
-        <v>1.804941541416397</v>
+        <v>1.507252017243616</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.06970441586418</v>
+        <v>6.035380689801457</v>
       </c>
       <c r="C9">
-        <v>0.517596977161304</v>
+        <v>1.747602766364878</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.05830241937369252</v>
+        <v>0.1345044875438788</v>
       </c>
       <c r="F9">
-        <v>0.5661985755042025</v>
+        <v>1.895061171845327</v>
       </c>
       <c r="G9">
-        <v>0.002447124736167261</v>
+        <v>0.0007394839250292477</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6215424825642799</v>
+        <v>1.816485714283985</v>
       </c>
       <c r="N9">
-        <v>1.832097583221767</v>
+        <v>1.616869340830846</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.372644246010225</v>
+        <v>7.390936116609964</v>
       </c>
       <c r="C10">
-        <v>0.6081763660110369</v>
+        <v>2.148621269662556</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.06441580084739229</v>
+        <v>0.1645460392891565</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990957</v>
       </c>
       <c r="G10">
-        <v>0.002436501448746409</v>
+        <v>0.0007177146717199952</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.7120744492649607</v>
+        <v>2.227224836742195</v>
       </c>
       <c r="N10">
-        <v>1.854836238832547</v>
+        <v>1.723640541081551</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.51178494891343</v>
+        <v>8.041410487906944</v>
       </c>
       <c r="C11">
-        <v>0.6496537634676542</v>
+        <v>2.341624781490793</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.06724236942517337</v>
+        <v>0.1790471674938985</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002431881309022619</v>
+        <v>0.0007077059164737332</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.7536748774556941</v>
+        <v>2.424665445998173</v>
       </c>
       <c r="N11">
-        <v>1.865812329107342</v>
+        <v>1.780190016999825</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.564673536994576</v>
+        <v>8.293782546570242</v>
       </c>
       <c r="C12">
-        <v>0.6654020271670333</v>
+        <v>2.416614921675546</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.06831948445970681</v>
+        <v>0.1846874349375227</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.002430162100254495</v>
+        <v>0.0007038884041676275</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7694904564404794</v>
+        <v>2.501328569849392</v>
       </c>
       <c r="N12">
-        <v>1.87006174226326</v>
+        <v>1.802997239223288</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.553274060268848</v>
+        <v>8.239138604846517</v>
       </c>
       <c r="C13">
-        <v>0.6620084628902987</v>
+        <v>2.400372676120469</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.06808720475554253</v>
+        <v>0.1834655403623771</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.002430531016684722</v>
+        <v>0.0007047120184307065</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7660814738765538</v>
+        <v>2.484726531223615</v>
       </c>
       <c r="N13">
-        <v>1.869142384803723</v>
+        <v>1.798018785116795</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.516132092546059</v>
+        <v>8.062044200755849</v>
       </c>
       <c r="C14">
-        <v>0.6509485328502365</v>
+        <v>2.347753584878774</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.06733084776887921</v>
+        <v>0.179508019215838</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.00243173926197319</v>
+        <v>0.0007073924769652902</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.7549747699102056</v>
+        <v>2.43093209961134</v>
       </c>
       <c r="N14">
-        <v>1.866160054752328</v>
+        <v>1.782036842619618</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.493407709323037</v>
+        <v>7.954396849273337</v>
       </c>
       <c r="C15">
-        <v>0.6441795087798141</v>
+        <v>2.315783742342205</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.06686844306963025</v>
+        <v>0.1771043025062369</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.002432483291544987</v>
+        <v>0.0007090303543781036</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.74817979262194</v>
+        <v>2.398241039378817</v>
       </c>
       <c r="N15">
-        <v>1.864345466545871</v>
+        <v>1.772437157548836</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.363578511735</v>
+        <v>7.349202162205984</v>
       </c>
       <c r="C16">
-        <v>0.6054714144522677</v>
+        <v>2.136251611942726</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.06423201201464224</v>
+        <v>0.1636174840260836</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002436807642710526</v>
+        <v>0.0007183656577905625</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.7093643613625886</v>
+        <v>2.214564784285898</v>
       </c>
       <c r="N16">
-        <v>1.854131825153161</v>
+        <v>1.720125200071237</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.28427890926605</v>
+        <v>6.987361640716585</v>
       </c>
       <c r="C17">
-        <v>0.581796780794491</v>
+        <v>2.029069280362421</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.06262645934910438</v>
+        <v>0.1555762268710588</v>
       </c>
       <c r="F17">
-        <v>0.6400460337215605</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.002439514754064557</v>
+        <v>0.0007240576193294768</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6856608681564751</v>
+        <v>2.10483841499736</v>
       </c>
       <c r="N17">
-        <v>1.848029483918197</v>
+        <v>1.690234990622031</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.238792776550667</v>
+        <v>6.782339563774826</v>
       </c>
       <c r="C18">
-        <v>0.5682052421475419</v>
+        <v>1.96838909243661</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.0617072638762366</v>
+        <v>0.1510276437381144</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002441091822334767</v>
+        <v>0.0007273223957876158</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6720663450315669</v>
+        <v>2.042697126493835</v>
       </c>
       <c r="N18">
-        <v>1.844578953066332</v>
+        <v>1.673776363218337</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.223413179643501</v>
+        <v>6.71342294156608</v>
       </c>
       <c r="C19">
-        <v>0.5636076822340783</v>
+        <v>1.947999859127719</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.06139676836360408</v>
+        <v>0.1494999392476757</v>
       </c>
       <c r="F19">
-        <v>0.6191636801734006</v>
+        <v>2.087706772602957</v>
       </c>
       <c r="G19">
-        <v>0.002441629233571319</v>
+        <v>0.0007284265601670614</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6674701150336375</v>
+        <v>2.021813792007393</v>
       </c>
       <c r="N19">
-        <v>1.843420796690538</v>
+        <v>1.668323116425199</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.292707506711054</v>
+        <v>7.025551695456613</v>
       </c>
       <c r="C20">
-        <v>0.5843143304404066</v>
+        <v>2.040376319840448</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.06279692916800528</v>
+        <v>0.1564241226133376</v>
       </c>
       <c r="F20">
-        <v>0.6429339538360921</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.00243922450822489</v>
+        <v>0.0007234527206532171</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6881800813649761</v>
+        <v>2.116416104731258</v>
       </c>
       <c r="N20">
-        <v>1.848672928415084</v>
+        <v>1.693339343734976</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.527036126684436</v>
+        <v>8.113886018379389</v>
       </c>
       <c r="C21">
-        <v>0.6541959511528717</v>
+        <v>2.363153903951854</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.06755282318246714</v>
+        <v>0.1806661304531048</v>
       </c>
       <c r="F21">
-        <v>0.7228739723492197</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002431383549404309</v>
+        <v>0.0007066060168583749</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7582353648812443</v>
+        <v>2.44667793543708</v>
       </c>
       <c r="N21">
-        <v>1.86703349630659</v>
+        <v>1.786691065728405</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.681347096063803</v>
+        <v>8.861220749603092</v>
       </c>
       <c r="C22">
-        <v>0.7001117373686725</v>
+        <v>2.585455748786103</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.07070054498927192</v>
+        <v>0.1973970225304456</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031955</v>
       </c>
       <c r="G22">
-        <v>0.002426435762958231</v>
+        <v>0.000695428003560443</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.804385426887535</v>
+        <v>2.673821474793229</v>
       </c>
       <c r="N22">
-        <v>1.879576298125272</v>
+        <v>1.855982387928748</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.598879426504027</v>
+        <v>8.458585520037104</v>
       </c>
       <c r="C23">
-        <v>0.6755824399731409</v>
+        <v>2.465618489840267</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.06901686672943441</v>
+        <v>0.1883747760631778</v>
       </c>
       <c r="F23">
-        <v>0.7472568307916134</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.002429060388560833</v>
+        <v>0.0007014140969866218</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7797200632110446</v>
+        <v>2.551408847953212</v>
       </c>
       <c r="N23">
-        <v>1.872831571003502</v>
+        <v>1.818145146768074</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.288896613608642</v>
+        <v>7.008276698029078</v>
       </c>
       <c r="C24">
-        <v>0.5831760862460555</v>
+        <v>2.0352615058938</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.06271984776090633</v>
+        <v>0.1560405591650067</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921573024</v>
       </c>
       <c r="G24">
-        <v>0.002439355663834891</v>
+        <v>0.0007237262180599666</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6870410426847826</v>
+        <v>2.111178924473705</v>
       </c>
       <c r="N24">
-        <v>1.848381847324987</v>
+        <v>1.691933623202743</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.959274939544571</v>
+        <v>5.559600289433092</v>
       </c>
       <c r="C25">
-        <v>0.4844651254614405</v>
+        <v>1.607192037250798</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.05609015891679547</v>
+        <v>0.12402176095922</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347308</v>
+        <v>1.757113814925404</v>
       </c>
       <c r="G25">
-        <v>0.002451226659085448</v>
+        <v>0.0007474744530567502</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5885567523550463</v>
+        <v>1.672554346324674</v>
       </c>
       <c r="N25">
-        <v>1.82427049017717</v>
+        <v>1.583264618680289</v>
       </c>
       <c r="O25">
         <v>0</v>
